--- a/results/mp/tinybert/corona/confidence/210/0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,58 +49,73 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>safety</t>
@@ -112,64 +124,64 @@
     <t>well</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -664,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -688,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7402597402597403</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5416666666666666</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3133047210300429</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,169 +876,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L9">
+        <v>99</v>
+      </c>
+      <c r="M9">
+        <v>99</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L10">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>48</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <v>35</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>63</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.875</v>
-      </c>
-      <c r="L9">
-        <v>21</v>
-      </c>
-      <c r="M9">
-        <v>21</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.15</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>45</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.08148148148148149</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>124</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,15 +1056,15 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
         <v>21</v>
@@ -1142,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6875</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6875</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6575342465753424</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,47 +1186,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>0.6698113207547169</v>
+      </c>
+      <c r="L20">
+        <v>71</v>
+      </c>
+      <c r="M20">
+        <v>71</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>35</v>
-      </c>
-      <c r="K20">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6470588235294118</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.631578947368421</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5757575757575758</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.525</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.4934725848563969</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5454545454545454</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5142857142857142</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5070422535211268</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L31">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4883720930232558</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L32">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="M32">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4791666666666667</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L33">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4666666666666667</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4239130434782609</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1662,33 +1602,215 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.3125</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.2845188284518829</v>
+      </c>
+      <c r="L37">
+        <v>68</v>
+      </c>
+      <c r="M37">
+        <v>68</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.0275</v>
+      </c>
+      <c r="L38">
+        <v>33</v>
+      </c>
+      <c r="M38">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K36">
-        <v>0.34375</v>
-      </c>
-      <c r="L36">
-        <v>11</v>
-      </c>
-      <c r="M36">
-        <v>11</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>21</v>
+      <c r="K39">
+        <v>0.01161048689138577</v>
+      </c>
+      <c r="L39">
+        <v>31</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>0.91</v>
+      </c>
+      <c r="O39">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.01145662847790507</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>29</v>
+      </c>
+      <c r="N40">
+        <v>0.97</v>
+      </c>
+      <c r="O40">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.006700554528650647</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>29</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.006005424254165052</v>
+      </c>
+      <c r="L42">
+        <v>31</v>
+      </c>
+      <c r="M42">
+        <v>34</v>
+      </c>
+      <c r="N42">
+        <v>0.91</v>
+      </c>
+      <c r="O42">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43">
+        <v>0.005604483586869495</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>28</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>4968</v>
       </c>
     </row>
   </sheetData>
